--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hc-C5ar2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hc-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>C5ar2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.124651574883628</v>
+        <v>0.1527673333333333</v>
       </c>
       <c r="H2">
-        <v>0.124651574883628</v>
+        <v>0.458302</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,31 +555,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.10488351632576</v>
+        <v>0.002486</v>
       </c>
       <c r="N2">
-        <v>7.10488351632576</v>
+        <v>0.007458</v>
       </c>
       <c r="O2">
-        <v>0.09163360298574769</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="P2">
-        <v>0.09163360298574769</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="Q2">
-        <v>0.8856349196747347</v>
+        <v>0.0003797795906666667</v>
       </c>
       <c r="R2">
-        <v>0.8856349196747347</v>
+        <v>0.003418016316</v>
       </c>
       <c r="S2">
-        <v>0.09163360298574769</v>
+        <v>3.00751452789208E-05</v>
       </c>
       <c r="T2">
-        <v>0.09163360298574769</v>
+        <v>3.00751452789208E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.124651574883628</v>
+        <v>0.1527673333333333</v>
       </c>
       <c r="H3">
-        <v>0.124651574883628</v>
+        <v>0.458302</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,31 +617,31 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>8.194998358068871</v>
+        <v>0.01171</v>
       </c>
       <c r="N3">
-        <v>8.194998358068871</v>
+        <v>0.03513</v>
       </c>
       <c r="O3">
-        <v>0.1056931087310041</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="P3">
-        <v>0.1056931087310041</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="Q3">
-        <v>1.02151945150203</v>
+        <v>0.001788905473333333</v>
       </c>
       <c r="R3">
-        <v>1.02151945150203</v>
+        <v>0.01610014926</v>
       </c>
       <c r="S3">
-        <v>0.1056931087310041</v>
+        <v>0.0001416653062011917</v>
       </c>
       <c r="T3">
-        <v>0.1056931087310041</v>
+        <v>0.0001416653062011917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,55 +655,179 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1527673333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.458302</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>9.107756666666667</v>
+      </c>
+      <c r="N4">
+        <v>27.32327</v>
+      </c>
+      <c r="O4">
+        <v>0.1101838716472484</v>
+      </c>
+      <c r="P4">
+        <v>0.1101838716472484</v>
+      </c>
+      <c r="Q4">
+        <v>1.391367698615556</v>
+      </c>
+      <c r="R4">
+        <v>12.52230928754</v>
+      </c>
+      <c r="S4">
+        <v>0.1101838716472484</v>
+      </c>
+      <c r="T4">
+        <v>0.1101838716472484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.124651574883628</v>
-      </c>
-      <c r="H4">
-        <v>0.124651574883628</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>62.2359050511814</v>
-      </c>
-      <c r="N4">
-        <v>62.2359050511814</v>
-      </c>
-      <c r="O4">
-        <v>0.8026732882832482</v>
-      </c>
-      <c r="P4">
-        <v>0.8026732882832482</v>
-      </c>
-      <c r="Q4">
-        <v>7.7578035789377</v>
-      </c>
-      <c r="R4">
-        <v>7.7578035789377</v>
-      </c>
-      <c r="S4">
-        <v>0.8026732882832482</v>
-      </c>
-      <c r="T4">
-        <v>0.8026732882832482</v>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.1527673333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.458302</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>8.275423333333334</v>
+      </c>
+      <c r="N5">
+        <v>24.82627</v>
+      </c>
+      <c r="O5">
+        <v>0.1001144645995861</v>
+      </c>
+      <c r="P5">
+        <v>0.1001144645995861</v>
+      </c>
+      <c r="Q5">
+        <v>1.264214354837778</v>
+      </c>
+      <c r="R5">
+        <v>11.37792919354</v>
+      </c>
+      <c r="S5">
+        <v>0.1001144645995861</v>
+      </c>
+      <c r="T5">
+        <v>0.1001144645995861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1527673333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.458302</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>65.26224133333334</v>
+      </c>
+      <c r="N6">
+        <v>195.786724</v>
+      </c>
+      <c r="O6">
+        <v>0.7895299233016855</v>
+      </c>
+      <c r="P6">
+        <v>0.7895299233016855</v>
+      </c>
+      <c r="Q6">
+        <v>9.969938575849778</v>
+      </c>
+      <c r="R6">
+        <v>89.729447182648</v>
+      </c>
+      <c r="S6">
+        <v>0.7895299233016855</v>
+      </c>
+      <c r="T6">
+        <v>0.7895299233016855</v>
       </c>
     </row>
   </sheetData>
